--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lgals1-Cd69.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H2">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I2">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J2">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.67520818719252</v>
+        <v>0.1059273333333333</v>
       </c>
       <c r="N2">
-        <v>6.67520818719252</v>
+        <v>0.317782</v>
       </c>
       <c r="O2">
-        <v>0.3612632918446874</v>
+        <v>0.005178699957631011</v>
       </c>
       <c r="P2">
-        <v>0.3612632918446874</v>
+        <v>0.005178699957631011</v>
       </c>
       <c r="Q2">
-        <v>290.9886287904314</v>
+        <v>5.067259297438</v>
       </c>
       <c r="R2">
-        <v>290.9886287904314</v>
+        <v>45.605333676942</v>
       </c>
       <c r="S2">
-        <v>0.01763541169079805</v>
+        <v>0.0002645195831977963</v>
       </c>
       <c r="T2">
-        <v>0.01763541169079805</v>
+        <v>0.0002645195831977962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.5924424572616</v>
+        <v>47.837127</v>
       </c>
       <c r="H3">
-        <v>43.5924424572616</v>
+        <v>143.511381</v>
       </c>
       <c r="I3">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J3">
-        <v>0.04881595248924372</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>11.802196901787</v>
+        <v>0.05518799999999999</v>
       </c>
       <c r="N3">
-        <v>11.802196901787</v>
+        <v>0.165564</v>
       </c>
       <c r="O3">
-        <v>0.6387367081553126</v>
+        <v>0.002698095800848445</v>
       </c>
       <c r="P3">
-        <v>0.6387367081553126</v>
+        <v>0.002698095800848446</v>
       </c>
       <c r="Q3">
-        <v>514.4865893104209</v>
+        <v>2.640035364876</v>
       </c>
       <c r="R3">
-        <v>514.4865893104209</v>
+        <v>23.760318283884</v>
       </c>
       <c r="S3">
-        <v>0.03118054079844567</v>
+        <v>0.0001378143515761117</v>
       </c>
       <c r="T3">
-        <v>0.03118054079844567</v>
+        <v>0.0001378143515761117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>255.691236986877</v>
+        <v>47.837127</v>
       </c>
       <c r="H4">
-        <v>255.691236986877</v>
+        <v>143.511381</v>
       </c>
       <c r="I4">
-        <v>0.2863297070106732</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J4">
-        <v>0.2863297070106732</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.67520818719252</v>
+        <v>7.495919333333333</v>
       </c>
       <c r="N4">
-        <v>6.67520818719252</v>
+        <v>22.487758</v>
       </c>
       <c r="O4">
-        <v>0.3612632918446874</v>
+        <v>0.3664693135602911</v>
       </c>
       <c r="P4">
-        <v>0.3612632918446874</v>
+        <v>0.3664693135602912</v>
       </c>
       <c r="Q4">
-        <v>1706.792238528184</v>
+        <v>358.583245130422</v>
       </c>
       <c r="R4">
-        <v>1706.792238528184</v>
+        <v>3227.249206173798</v>
       </c>
       <c r="S4">
-        <v>0.1034404125076007</v>
+        <v>0.01871865736011765</v>
       </c>
       <c r="T4">
-        <v>0.1034404125076007</v>
+        <v>0.01871865736011765</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>255.691236986877</v>
+        <v>47.837127</v>
       </c>
       <c r="H5">
-        <v>255.691236986877</v>
+        <v>143.511381</v>
       </c>
       <c r="I5">
-        <v>0.2863297070106732</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J5">
-        <v>0.2863297070106732</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.802196901787</v>
+        <v>12.70442966666666</v>
       </c>
       <c r="N5">
-        <v>11.802196901787</v>
+        <v>38.11328899999999</v>
       </c>
       <c r="O5">
-        <v>0.6387367081553126</v>
+        <v>0.6211090877692206</v>
       </c>
       <c r="P5">
-        <v>0.6387367081553126</v>
+        <v>0.6211090877692207</v>
       </c>
       <c r="Q5">
-        <v>3017.718324980605</v>
+        <v>607.7434154269009</v>
       </c>
       <c r="R5">
-        <v>3017.718324980605</v>
+        <v>5469.690738842109</v>
       </c>
       <c r="S5">
-        <v>0.1828892945030725</v>
+        <v>0.03172524347060926</v>
       </c>
       <c r="T5">
-        <v>0.1828892945030725</v>
+        <v>0.03172524347060926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>295.40478970594</v>
+        <v>47.837127</v>
       </c>
       <c r="H6">
-        <v>295.40478970594</v>
+        <v>143.511381</v>
       </c>
       <c r="I6">
-        <v>0.330801977740021</v>
+        <v>0.05107837591710958</v>
       </c>
       <c r="J6">
-        <v>0.330801977740021</v>
+        <v>0.05107837591710957</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.67520818719252</v>
+        <v>0.09296133333333334</v>
       </c>
       <c r="N6">
-        <v>6.67520818719252</v>
+        <v>0.278884</v>
       </c>
       <c r="O6">
-        <v>0.3612632918446874</v>
+        <v>0.004544802912008758</v>
       </c>
       <c r="P6">
-        <v>0.3612632918446874</v>
+        <v>0.004544802912008758</v>
       </c>
       <c r="Q6">
-        <v>1971.888470780975</v>
+        <v>4.447003108756</v>
       </c>
       <c r="R6">
-        <v>1971.888470780975</v>
+        <v>40.023027978804</v>
       </c>
       <c r="S6">
-        <v>0.119506611427093</v>
+        <v>0.0002321411516087577</v>
       </c>
       <c r="T6">
-        <v>0.119506611427093</v>
+        <v>0.0002321411516087576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>295.40478970594</v>
+        <v>255.905248</v>
       </c>
       <c r="H7">
-        <v>295.40478970594</v>
+        <v>767.715744</v>
       </c>
       <c r="I7">
-        <v>0.330801977740021</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J7">
-        <v>0.330801977740021</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>11.802196901787</v>
+        <v>0.1059273333333333</v>
       </c>
       <c r="N7">
-        <v>11.802196901787</v>
+        <v>0.317782</v>
       </c>
       <c r="O7">
-        <v>0.6387367081553126</v>
+        <v>0.005178699957631011</v>
       </c>
       <c r="P7">
-        <v>0.6387367081553126</v>
+        <v>0.005178699957631011</v>
       </c>
       <c r="Q7">
-        <v>3486.425493840485</v>
+        <v>27.10736050664533</v>
       </c>
       <c r="R7">
-        <v>3486.425493840485</v>
+        <v>243.966244559808</v>
       </c>
       <c r="S7">
-        <v>0.211295366312928</v>
+        <v>0.001415050480332748</v>
       </c>
       <c r="T7">
-        <v>0.211295366312928</v>
+        <v>0.001415050480332748</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.802623672374</v>
+        <v>255.905248</v>
       </c>
       <c r="H8">
-        <v>140.802623672374</v>
+        <v>767.715744</v>
       </c>
       <c r="I8">
-        <v>0.1576744453878726</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J8">
-        <v>0.1576744453878726</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>6.67520818719252</v>
+        <v>0.05518799999999999</v>
       </c>
       <c r="N8">
-        <v>6.67520818719252</v>
+        <v>0.165564</v>
       </c>
       <c r="O8">
-        <v>0.3612632918446874</v>
+        <v>0.002698095800848445</v>
       </c>
       <c r="P8">
-        <v>0.3612632918446874</v>
+        <v>0.002698095800848446</v>
       </c>
       <c r="Q8">
-        <v>939.8868263160183</v>
+        <v>14.122898826624</v>
       </c>
       <c r="R8">
-        <v>939.8868263160183</v>
+        <v>127.106089439616</v>
       </c>
       <c r="S8">
-        <v>0.05696198918060823</v>
+        <v>0.0007372394211308731</v>
       </c>
       <c r="T8">
-        <v>0.05696198918060823</v>
+        <v>0.0007372394211308731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.802623672374</v>
+        <v>255.905248</v>
       </c>
       <c r="H9">
-        <v>140.802623672374</v>
+        <v>767.715744</v>
       </c>
       <c r="I9">
-        <v>0.1576744453878726</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J9">
-        <v>0.1576744453878726</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.802196901787</v>
+        <v>7.495919333333333</v>
       </c>
       <c r="N9">
-        <v>11.802196901787</v>
+        <v>22.487758</v>
       </c>
       <c r="O9">
-        <v>0.6387367081553126</v>
+        <v>0.3664693135602911</v>
       </c>
       <c r="P9">
-        <v>0.6387367081553126</v>
+        <v>0.3664693135602912</v>
       </c>
       <c r="Q9">
-        <v>1661.780288869573</v>
+        <v>1918.245095984661</v>
       </c>
       <c r="R9">
-        <v>1661.780288869573</v>
+        <v>17264.20586386195</v>
       </c>
       <c r="S9">
-        <v>0.1007124562072644</v>
+        <v>0.1001356677203448</v>
       </c>
       <c r="T9">
-        <v>0.1007124562072644</v>
+        <v>0.1001356677203448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>157.504746332113</v>
+        <v>255.905248</v>
       </c>
       <c r="H10">
-        <v>157.504746332113</v>
+        <v>767.715744</v>
       </c>
       <c r="I10">
-        <v>0.1763779173721895</v>
+        <v>0.2732443454747012</v>
       </c>
       <c r="J10">
-        <v>0.1763779173721895</v>
+        <v>0.2732443454747011</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.67520818719252</v>
+        <v>12.70442966666666</v>
       </c>
       <c r="N10">
-        <v>6.67520818719252</v>
+        <v>38.11328899999999</v>
       </c>
       <c r="O10">
-        <v>0.3612632918446874</v>
+        <v>0.6211090877692206</v>
       </c>
       <c r="P10">
-        <v>0.3612632918446874</v>
+        <v>0.6211090877692207</v>
       </c>
       <c r="Q10">
-        <v>1051.376972237802</v>
+        <v>3251.13022454689</v>
       </c>
       <c r="R10">
-        <v>1051.376972237802</v>
+        <v>29260.17202092201</v>
       </c>
       <c r="S10">
-        <v>0.06371886703858745</v>
+        <v>0.1697145461558894</v>
       </c>
       <c r="T10">
-        <v>0.06371886703858745</v>
+        <v>0.1697145461558894</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>255.905248</v>
+      </c>
+      <c r="H11">
+        <v>767.715744</v>
+      </c>
+      <c r="I11">
+        <v>0.2732443454747012</v>
+      </c>
+      <c r="J11">
+        <v>0.2732443454747011</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.09296133333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.278884</v>
+      </c>
+      <c r="O11">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="P11">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="Q11">
+        <v>23.78929306107733</v>
+      </c>
+      <c r="R11">
+        <v>214.103637549696</v>
+      </c>
+      <c r="S11">
+        <v>0.001241841697003349</v>
+      </c>
+      <c r="T11">
+        <v>0.001241841697003349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>295.7629596666666</v>
+      </c>
+      <c r="H12">
+        <v>887.288879</v>
+      </c>
+      <c r="I12">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="J12">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1059273333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.317782</v>
+      </c>
+      <c r="O12">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="P12">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="Q12">
+        <v>31.32938161626421</v>
+      </c>
+      <c r="R12">
+        <v>281.964434546378</v>
+      </c>
+      <c r="S12">
+        <v>0.001635447187628414</v>
+      </c>
+      <c r="T12">
+        <v>0.001635447187628414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>295.7629596666666</v>
+      </c>
+      <c r="H13">
+        <v>887.288879</v>
+      </c>
+      <c r="I13">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="J13">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.05518799999999999</v>
+      </c>
+      <c r="N13">
+        <v>0.165564</v>
+      </c>
+      <c r="O13">
+        <v>0.002698095800848445</v>
+      </c>
+      <c r="P13">
+        <v>0.002698095800848446</v>
+      </c>
+      <c r="Q13">
+        <v>16.322566218084</v>
+      </c>
+      <c r="R13">
+        <v>146.903095962756</v>
+      </c>
+      <c r="S13">
+        <v>0.0008520658129551414</v>
+      </c>
+      <c r="T13">
+        <v>0.0008520658129551416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>295.7629596666666</v>
+      </c>
+      <c r="H14">
+        <v>887.288879</v>
+      </c>
+      <c r="I14">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="J14">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.495919333333333</v>
+      </c>
+      <c r="N14">
+        <v>22.487758</v>
+      </c>
+      <c r="O14">
+        <v>0.3664693135602911</v>
+      </c>
+      <c r="P14">
+        <v>0.3664693135602912</v>
+      </c>
+      <c r="Q14">
+        <v>2217.015287449253</v>
+      </c>
+      <c r="R14">
+        <v>19953.13758704328</v>
+      </c>
+      <c r="S14">
+        <v>0.115731981601124</v>
+      </c>
+      <c r="T14">
+        <v>0.115731981601124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>157.504746332113</v>
-      </c>
-      <c r="H11">
-        <v>157.504746332113</v>
-      </c>
-      <c r="I11">
-        <v>0.1763779173721895</v>
-      </c>
-      <c r="J11">
-        <v>0.1763779173721895</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>11.802196901787</v>
-      </c>
-      <c r="N11">
-        <v>11.802196901787</v>
-      </c>
-      <c r="O11">
-        <v>0.6387367081553126</v>
-      </c>
-      <c r="P11">
-        <v>0.6387367081553126</v>
-      </c>
-      <c r="Q11">
-        <v>1858.902029177611</v>
-      </c>
-      <c r="R11">
-        <v>1858.902029177611</v>
-      </c>
-      <c r="S11">
-        <v>0.112659050333602</v>
-      </c>
-      <c r="T11">
-        <v>0.112659050333602</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>295.7629596666666</v>
+      </c>
+      <c r="H15">
+        <v>887.288879</v>
+      </c>
+      <c r="I15">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="J15">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.70442966666666</v>
+      </c>
+      <c r="N15">
+        <v>38.11328899999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6211090877692206</v>
+      </c>
+      <c r="P15">
+        <v>0.6211090877692207</v>
+      </c>
+      <c r="Q15">
+        <v>3757.499719090335</v>
+      </c>
+      <c r="R15">
+        <v>33817.49747181303</v>
+      </c>
+      <c r="S15">
+        <v>0.1961478979499121</v>
+      </c>
+      <c r="T15">
+        <v>0.1961478979499121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>295.7629596666666</v>
+      </c>
+      <c r="H16">
+        <v>887.288879</v>
+      </c>
+      <c r="I16">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="J16">
+        <v>0.315802653370277</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09296133333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.278884</v>
+      </c>
+      <c r="O16">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="P16">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="Q16">
+        <v>27.49451908122622</v>
+      </c>
+      <c r="R16">
+        <v>247.450671731036</v>
+      </c>
+      <c r="S16">
+        <v>0.001435260818657327</v>
+      </c>
+      <c r="T16">
+        <v>0.001435260818657327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>150.2412563333333</v>
+      </c>
+      <c r="H17">
+        <v>450.723769</v>
+      </c>
+      <c r="I17">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="J17">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1059273333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.317782</v>
+      </c>
+      <c r="O17">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="P17">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="Q17">
+        <v>15.91465564003977</v>
+      </c>
+      <c r="R17">
+        <v>143.231900760358</v>
+      </c>
+      <c r="S17">
+        <v>0.0008307721846340521</v>
+      </c>
+      <c r="T17">
+        <v>0.0008307721846340519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>150.2412563333333</v>
+      </c>
+      <c r="H18">
+        <v>450.723769</v>
+      </c>
+      <c r="I18">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="J18">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.05518799999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.165564</v>
+      </c>
+      <c r="O18">
+        <v>0.002698095800848445</v>
+      </c>
+      <c r="P18">
+        <v>0.002698095800848446</v>
+      </c>
+      <c r="Q18">
+        <v>8.291514454523998</v>
+      </c>
+      <c r="R18">
+        <v>74.62363009071599</v>
+      </c>
+      <c r="S18">
+        <v>0.0004328312049667766</v>
+      </c>
+      <c r="T18">
+        <v>0.0004328312049667766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>150.2412563333333</v>
+      </c>
+      <c r="H19">
+        <v>450.723769</v>
+      </c>
+      <c r="I19">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="J19">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.495919333333333</v>
+      </c>
+      <c r="N19">
+        <v>22.487758</v>
+      </c>
+      <c r="O19">
+        <v>0.3664693135602911</v>
+      </c>
+      <c r="P19">
+        <v>0.3664693135602912</v>
+      </c>
+      <c r="Q19">
+        <v>1126.196338013322</v>
+      </c>
+      <c r="R19">
+        <v>10135.7670421199</v>
+      </c>
+      <c r="S19">
+        <v>0.05878937083026062</v>
+      </c>
+      <c r="T19">
+        <v>0.05878937083026062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>150.2412563333333</v>
+      </c>
+      <c r="H20">
+        <v>450.723769</v>
+      </c>
+      <c r="I20">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="J20">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.70442966666666</v>
+      </c>
+      <c r="N20">
+        <v>38.11328899999999</v>
+      </c>
+      <c r="O20">
+        <v>0.6211090877692206</v>
+      </c>
+      <c r="P20">
+        <v>0.6211090877692207</v>
+      </c>
+      <c r="Q20">
+        <v>1908.729474118471</v>
+      </c>
+      <c r="R20">
+        <v>17178.56526706624</v>
+      </c>
+      <c r="S20">
+        <v>0.09963893601940632</v>
+      </c>
+      <c r="T20">
+        <v>0.09963893601940632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>150.2412563333333</v>
+      </c>
+      <c r="H21">
+        <v>450.723769</v>
+      </c>
+      <c r="I21">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="J21">
+        <v>0.1604209920309976</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.09296133333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.278884</v>
+      </c>
+      <c r="O21">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="P21">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="Q21">
+        <v>13.96662751042178</v>
+      </c>
+      <c r="R21">
+        <v>125.699647593796</v>
+      </c>
+      <c r="S21">
+        <v>0.0007290817917298117</v>
+      </c>
+      <c r="T21">
+        <v>0.0007290817917298116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H22">
+        <v>560.391082</v>
+      </c>
+      <c r="I22">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J22">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1059273333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.317782</v>
+      </c>
+      <c r="O22">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="P22">
+        <v>0.005178699957631011</v>
+      </c>
+      <c r="Q22">
+        <v>19.78691098001377</v>
+      </c>
+      <c r="R22">
+        <v>178.082198820124</v>
+      </c>
+      <c r="S22">
+        <v>0.001032910521838</v>
+      </c>
+      <c r="T22">
+        <v>0.001032910521838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H23">
+        <v>560.391082</v>
+      </c>
+      <c r="I23">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J23">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.05518799999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.165564</v>
+      </c>
+      <c r="O23">
+        <v>0.002698095800848445</v>
+      </c>
+      <c r="P23">
+        <v>0.002698095800848446</v>
+      </c>
+      <c r="Q23">
+        <v>10.308954344472</v>
+      </c>
+      <c r="R23">
+        <v>92.78058910024799</v>
+      </c>
+      <c r="S23">
+        <v>0.0005381450102195424</v>
+      </c>
+      <c r="T23">
+        <v>0.0005381450102195425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H24">
+        <v>560.391082</v>
+      </c>
+      <c r="I24">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J24">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.495919333333333</v>
+      </c>
+      <c r="N24">
+        <v>22.487758</v>
+      </c>
+      <c r="O24">
+        <v>0.3664693135602911</v>
+      </c>
+      <c r="P24">
+        <v>0.3664693135602912</v>
+      </c>
+      <c r="Q24">
+        <v>1400.215448597128</v>
+      </c>
+      <c r="R24">
+        <v>12601.93903737416</v>
+      </c>
+      <c r="S24">
+        <v>0.0730936360484441</v>
+      </c>
+      <c r="T24">
+        <v>0.0730936360484441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H25">
+        <v>560.391082</v>
+      </c>
+      <c r="I25">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J25">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.70442966666666</v>
+      </c>
+      <c r="N25">
+        <v>38.11328899999999</v>
+      </c>
+      <c r="O25">
+        <v>0.6211090877692206</v>
+      </c>
+      <c r="P25">
+        <v>0.6211090877692207</v>
+      </c>
+      <c r="Q25">
+        <v>2373.149695698743</v>
+      </c>
+      <c r="R25">
+        <v>21358.34726128869</v>
+      </c>
+      <c r="S25">
+        <v>0.1238824641734035</v>
+      </c>
+      <c r="T25">
+        <v>0.1238824641734035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>186.7970273333333</v>
+      </c>
+      <c r="H26">
+        <v>560.391082</v>
+      </c>
+      <c r="I26">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="J26">
+        <v>0.1994536332069146</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.09296133333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.278884</v>
+      </c>
+      <c r="O26">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="P26">
+        <v>0.004544802912008758</v>
+      </c>
+      <c r="Q26">
+        <v>17.36490072360978</v>
+      </c>
+      <c r="R26">
+        <v>156.284106512488</v>
+      </c>
+      <c r="S26">
+        <v>0.0009064774530095124</v>
+      </c>
+      <c r="T26">
+        <v>0.0009064774530095123</v>
       </c>
     </row>
   </sheetData>
